--- a/biology/Zoologie/Gonolek_boubou/Gonolek_boubou.xlsx
+++ b/biology/Zoologie/Gonolek_boubou/Gonolek_boubou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laniarius ferrugineus
 Le Gonolek boubou (Laniarius ferrugineus) est une espèce d’oiseaux de la famille des Malaconotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans le sud de l'Afrique, principalement dans le sud du Zimbabwe, l'est du Botswana, le Mozambique et le sud et l'est de l'Afrique du Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les fourrés denses dans les forêts, les mangroves, les broussailles et les jardins. Dans les régions plus sèches, on le trouve dans les forêts alluviales.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, construit principalement par la femelle, est une coupe peu profonde construite dans un buisson dense ou des lianes dans lequel la femelle pond  habituellement deux œufs blanc-verdâtre tachés de brun. Les deux sexes couvent les œufs pendant 16-17 jours et nourrissent les oisillons. L'envol a lieu environ au bout de 16 autres jours. Environ 2 % des nids sont parasités par le Coucou.
 </t>
@@ -605,9 +623,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 mars 2011)[1], cet oiseau est représenté par quatre sous-espèces :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 mars 2011), cet oiseau est représenté par quatre sous-espèces :
 Laniarius ferrugenius erlangeri ;
 Laniarius ferrugineus natalensis ;
 Laniarius ferrugineus savensis ;
